--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2555056.655569847</v>
+        <v>-2557670.934186298</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.2146126744141</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>297.607293590734</v>
+        <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851262</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>115.8619247783174</v>
       </c>
       <c r="T2" t="n">
-        <v>28.68529852373135</v>
+        <v>205.2000830738755</v>
       </c>
       <c r="U2" t="n">
         <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>150.5353068722844</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.1561775373476</v>
       </c>
       <c r="H3" t="n">
-        <v>91.11034837618719</v>
+        <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674305</v>
+        <v>14.08691327674308</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>13.21683571160366</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1571872936354</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9230939674644</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3033462869333</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792916</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>50.47747875979797</v>
       </c>
       <c r="T4" t="n">
         <v>220.1102960603998</v>
@@ -874,16 +874,16 @@
         <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>183.2476261035015</v>
+        <v>108.2462644793332</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>52.79913863645098</v>
+        <v>87.67771932486366</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>345.8079317615178</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>228.0656025585469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>37.38100496017459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>233.6163009967752</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>80.67842139643641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>151.8518831495024</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>47.8420565038205</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892442</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>104.891381999978</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>168.480551467095</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.7518808581196</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223622</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>122.4770547252869</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>13.72582864853715</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2761,7 +2761,7 @@
         <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352486</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541833</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.010065354184</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652582</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652545</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,7 +3676,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
         <v>56.98118882652579</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2299.353752146947</v>
+        <v>1168.136334583012</v>
       </c>
       <c r="C2" t="n">
-        <v>1930.391235206535</v>
+        <v>799.1738176425997</v>
       </c>
       <c r="D2" t="n">
-        <v>1572.125536599785</v>
+        <v>799.1738176425997</v>
       </c>
       <c r="E2" t="n">
-        <v>1186.337284001541</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="F2" t="n">
-        <v>775.3513792119329</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="G2" t="n">
-        <v>359.9830835812115</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="H2" t="n">
-        <v>59.3696557117832</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="I2" t="n">
-        <v>59.3696557117832</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734998</v>
+        <v>223.6389510734989</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447442</v>
+        <v>520.5745606447431</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185029</v>
+        <v>925.8512030185013</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552358</v>
+        <v>1408.468993552356</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877249</v>
+        <v>1903.509852877247</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384227</v>
+        <v>2357.627637384225</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215712</v>
+        <v>2710.705659215711</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719475</v>
+        <v>2927.679802719473</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.48278558916</v>
+        <v>2968.482785589158</v>
       </c>
       <c r="S2" t="n">
-        <v>2968.48278558916</v>
+        <v>2851.450538338332</v>
       </c>
       <c r="T2" t="n">
-        <v>2939.50773657529</v>
+        <v>2644.177727152599</v>
       </c>
       <c r="U2" t="n">
-        <v>2685.953592211069</v>
+        <v>2390.623582788378</v>
       </c>
       <c r="V2" t="n">
-        <v>2685.953592211069</v>
+        <v>2059.560695444807</v>
       </c>
       <c r="W2" t="n">
-        <v>2685.953592211069</v>
+        <v>1706.792040174693</v>
       </c>
       <c r="X2" t="n">
-        <v>2685.953592211069</v>
+        <v>1554.736174647133</v>
       </c>
       <c r="Y2" t="n">
-        <v>2685.953592211069</v>
+        <v>1554.736174647133</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1341.528820902748</v>
+        <v>1341.528820902746</v>
       </c>
       <c r="C3" t="n">
-        <v>1167.075791621621</v>
+        <v>1167.075791621619</v>
       </c>
       <c r="D3" t="n">
-        <v>1018.141381960369</v>
+        <v>1018.141381960367</v>
       </c>
       <c r="E3" t="n">
-        <v>858.9039269549137</v>
+        <v>858.9039269549119</v>
       </c>
       <c r="F3" t="n">
-        <v>712.3693689817986</v>
+        <v>712.3693689817968</v>
       </c>
       <c r="G3" t="n">
-        <v>575.8479775299325</v>
+        <v>575.8479775299306</v>
       </c>
       <c r="H3" t="n">
-        <v>483.8173226044909</v>
+        <v>483.817322604489</v>
       </c>
       <c r="I3" t="n">
-        <v>469.5881172744474</v>
+        <v>469.5881172744455</v>
       </c>
       <c r="J3" t="n">
-        <v>548.6079372775595</v>
+        <v>548.6079372775575</v>
       </c>
       <c r="K3" t="n">
-        <v>761.8202204795546</v>
+        <v>761.8202204795525</v>
       </c>
       <c r="L3" t="n">
-        <v>1094.832988429797</v>
+        <v>1094.832988429795</v>
       </c>
       <c r="M3" t="n">
-        <v>1502.800049602479</v>
+        <v>1502.800049602476</v>
       </c>
       <c r="N3" t="n">
-        <v>1935.973429856271</v>
+        <v>1935.973429856268</v>
       </c>
       <c r="O3" t="n">
-        <v>2310.022650300801</v>
+        <v>2310.022650300798</v>
       </c>
       <c r="P3" t="n">
-        <v>2622.668362398602</v>
+        <v>2830.644877257091</v>
       </c>
       <c r="Q3" t="n">
-        <v>2968.48278558916</v>
+        <v>2968.482785589158</v>
       </c>
       <c r="R3" t="n">
-        <v>2968.48278558916</v>
+        <v>2968.482785589158</v>
       </c>
       <c r="S3" t="n">
-        <v>2836.104707899346</v>
+        <v>2836.104707899344</v>
       </c>
       <c r="T3" t="n">
-        <v>2642.823682619126</v>
+        <v>2642.823682619124</v>
       </c>
       <c r="U3" t="n">
-        <v>2414.745421853247</v>
+        <v>2414.745421853245</v>
       </c>
       <c r="V3" t="n">
-        <v>2179.593313621504</v>
+        <v>2179.593313621502</v>
       </c>
       <c r="W3" t="n">
-        <v>1925.355956893302</v>
+        <v>1925.355956893301</v>
       </c>
       <c r="X3" t="n">
-        <v>1717.50445668777</v>
+        <v>1717.504456687768</v>
       </c>
       <c r="Y3" t="n">
-        <v>1509.744157922816</v>
+        <v>1509.744157922814</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>808.3219358900428</v>
+        <v>525.3124255499363</v>
       </c>
       <c r="C4" t="n">
-        <v>639.3857529621359</v>
+        <v>356.3762426220294</v>
       </c>
       <c r="D4" t="n">
-        <v>489.2691135498002</v>
+        <v>206.2596032096936</v>
       </c>
       <c r="E4" t="n">
-        <v>475.9187744471702</v>
+        <v>206.2596032096936</v>
       </c>
       <c r="F4" t="n">
-        <v>475.9187744471702</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="G4" t="n">
-        <v>308.0832317263264</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="H4" t="n">
-        <v>160.686167112726</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="I4" t="n">
-        <v>59.3696557117832</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945998</v>
+        <v>95.29667538946001</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778209</v>
+        <v>284.1726417778212</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386279</v>
+        <v>581.3952856386281</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945959</v>
+        <v>905.164012994596</v>
       </c>
       <c r="N4" t="n">
         <v>1226.66886009458</v>
@@ -4510,28 +4510,28 @@
         <v>1791.210133852897</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986302</v>
+        <v>1791.210133852897</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493185</v>
+        <v>1740.222781570273</v>
       </c>
       <c r="T4" t="n">
-        <v>1279.080506108942</v>
+        <v>1517.88914918603</v>
       </c>
       <c r="U4" t="n">
-        <v>989.9704007202826</v>
+        <v>1228.779043797371</v>
       </c>
       <c r="V4" t="n">
-        <v>989.9704007202826</v>
+        <v>974.0945555914838</v>
       </c>
       <c r="W4" t="n">
-        <v>989.9704007202826</v>
+        <v>974.0945555914838</v>
       </c>
       <c r="X4" t="n">
-        <v>989.9704007202826</v>
+        <v>746.1050046934664</v>
       </c>
       <c r="Y4" t="n">
-        <v>989.9704007202826</v>
+        <v>525.3124255499363</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2102.480899540948</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="C5" t="n">
-        <v>1733.518382600537</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D5" t="n">
-        <v>1375.252683993786</v>
+        <v>937.45022757839</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.54649786615</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.08073960507</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2489.08073960507</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4659,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>629.780563451991</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1784.131627576877</v>
+        <v>1838.731195235095</v>
       </c>
       <c r="T7" t="n">
-        <v>1562.365012146403</v>
+        <v>1838.731195235095</v>
       </c>
       <c r="U7" t="n">
-        <v>1273.262145272047</v>
+        <v>1549.628328360739</v>
       </c>
       <c r="V7" t="n">
-        <v>1273.262145272047</v>
+        <v>1549.628328360739</v>
       </c>
       <c r="W7" t="n">
-        <v>1273.262145272047</v>
+        <v>1260.211158323778</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>1032.221607425761</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>811.4290282822308</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.72178906653</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2047.583838282732</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>2325.505862906803</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>104.2707073010467</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>104.2707073010467</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1469.551871045115</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1469.551871045115</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1180.134701008154</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>1180.134701008154</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
     <row r="11">
@@ -5042,22 +5042,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.0218491516691</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.3100179938672</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.315625093766</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400719</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400719</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400719</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576788</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>365.9405071576788</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138418</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703116</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5601,10 +5601,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.853600740071</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.853600740071</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.853600740071</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>366.9636532421606</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>199.7675539570405</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5838,10 +5838,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400708</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138406</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703105</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,16 +6063,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
         <v>1268.578514636218</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1055.185257670615</v>
+        <v>741.8431516380884</v>
       </c>
       <c r="C25" t="n">
-        <v>886.2490747427081</v>
+        <v>572.9069687101816</v>
       </c>
       <c r="D25" t="n">
-        <v>736.1324353303723</v>
+        <v>422.7903292978458</v>
       </c>
       <c r="E25" t="n">
-        <v>588.2193417479792</v>
+        <v>274.8772357154526</v>
       </c>
       <c r="F25" t="n">
-        <v>441.3293942500688</v>
+        <v>274.8772357154526</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>107.6811364303326</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1685.615852542402</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1457.626301644385</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>1236.833722500855</v>
+        <v>923.4916164683282</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,19 +6230,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6373,22 +6373,22 @@
         <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,7 +6406,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
         <v>2438.456847547834</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565681</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150015</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942647</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
         <v>483.8255460380728</v>
@@ -6640,7 +6640,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931273</v>
@@ -6649,22 +6649,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6883,22 +6883,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150025</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,10 +7348,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,55 +7564,55 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,19 +7828,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>32.09222441672267</v>
+        <v>242.1695121525734</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447061</v>
+        <v>9.872575263447146</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851256</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8619247783173</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5147845501442</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>219.1957938061847</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,19 +22711,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>133.2171269349655</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100.3033462869334</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>94.83943180792919</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>141.5811248383887</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.5874149221291276</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>134.6711151870886</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>117.6820817884483</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>35.40333084624591</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405082</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.4693302300326</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>43.0470835669819</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>126.5688841976867</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1403916.819800494</v>
+        <v>1403916.819800495</v>
       </c>
     </row>
     <row r="6">
@@ -26317,16 +26317,16 @@
         <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
+        <v>20178.66499225016</v>
+      </c>
+      <c r="G2" t="n">
         <v>20178.66499225015</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20178.66499225016</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225015</v>
@@ -26335,22 +26335,22 @@
         <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="K2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="N2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.04424660709</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26366,13 +26366,13 @@
         <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343972965</v>
+        <v>95186.49343973072</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818043</v>
+        <v>213599.1454818042</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359947</v>
+        <v>22978.01038359967</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17443.3632666228</v>
+        <v>17443.36326662283</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316952</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26445,7 +26445,7 @@
         <v>20377.77944491159</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491161</v>
       </c>
       <c r="M4" t="n">
         <v>20377.7794449116</v>
@@ -26454,10 +26454,10 @@
         <v>20377.7794449116</v>
       </c>
       <c r="O4" t="n">
+        <v>20377.77944491162</v>
+      </c>
+      <c r="P4" t="n">
         <v>20377.77944491159</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1330750.386878354</v>
+        <v>-1331179.945744942</v>
       </c>
       <c r="C6" t="n">
-        <v>-274168.3447076853</v>
+        <v>-274168.3447076863</v>
       </c>
       <c r="D6" t="n">
-        <v>-178981.8512679557</v>
+        <v>-178981.8512679556</v>
       </c>
       <c r="E6" t="n">
-        <v>-418743.2468208304</v>
+        <v>-418777.9847462659</v>
       </c>
       <c r="F6" t="n">
-        <v>-93330.78501347509</v>
+        <v>-93365.52293891083</v>
       </c>
       <c r="G6" t="n">
-        <v>-93330.78501347508</v>
+        <v>-93365.52293891078</v>
       </c>
       <c r="H6" t="n">
-        <v>-93330.78501347509</v>
+        <v>-93365.52293891078</v>
       </c>
       <c r="I6" t="n">
-        <v>-93330.78501347509</v>
+        <v>-93365.52293891078</v>
       </c>
       <c r="J6" t="n">
-        <v>-316614.9965340242</v>
+        <v>-316614.9965340241</v>
       </c>
       <c r="K6" t="n">
-        <v>-125993.8614358194</v>
+        <v>-125993.8614358196</v>
       </c>
       <c r="L6" t="n">
         <v>-103015.8510522199</v>
       </c>
       <c r="M6" t="n">
-        <v>-188070.8789877318</v>
+        <v>-188070.8789877317</v>
       </c>
       <c r="N6" t="n">
         <v>-103015.8510522199</v>
       </c>
       <c r="O6" t="n">
-        <v>-122443.5690458516</v>
+        <v>-122443.5690458517</v>
       </c>
       <c r="P6" t="n">
         <v>-103015.8510522199</v>
@@ -26713,19 +26713,19 @@
         <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203974</v>
-      </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.12069639729</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.8556464639687</v>
+        <v>72.85564646396961</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.12069639729</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500244</v>
+        <v>89.28075900500323</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.12069639729</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500244</v>
+        <v>89.28075900500323</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.12069639729</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500244</v>
+        <v>89.28075900500323</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>198.6827439687603</v>
+        <v>273.6841055929285</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>136.9698866949909</v>
+        <v>102.0913060065782</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>19.4649600094898</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>141.6654981199222</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>58.9714154496635</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>52.5955372088377</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
     </row>
     <row r="15">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720918</v>
+        <v>4.088124840720917</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503312</v>
+        <v>41.8675085250331</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218933</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001373</v>
+        <v>346.9744857001372</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078539</v>
+        <v>520.0248102078536</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020669</v>
+        <v>645.1367608020665</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382374</v>
+        <v>717.8389509382371</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419358</v>
+        <v>729.4543356419355</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570172</v>
+        <v>688.8030442570168</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517194</v>
+        <v>587.8774622517191</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934014</v>
+        <v>441.4714913934012</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259356</v>
+        <v>256.8006720259355</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792801</v>
+        <v>93.15814480792797</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025583</v>
+        <v>17.89576649025582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576734</v>
+        <v>0.3270499872576733</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863086</v>
+        <v>2.187339625863085</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030928</v>
+        <v>21.12509586030927</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467203</v>
+        <v>75.309719574672</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698102</v>
+        <v>206.6556266698101</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026369</v>
+        <v>353.2073816026368</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629476</v>
+        <v>474.9309130629474</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004843</v>
+        <v>554.2219745004841</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265575</v>
+        <v>568.8905810265572</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429595</v>
+        <v>520.4237398429593</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913466</v>
+        <v>417.6859325913464</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224528</v>
+        <v>279.2119845224527</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005169</v>
+        <v>135.8069287005168</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092176</v>
+        <v>40.62887419092174</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404275</v>
+        <v>8.816513667404271</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1439039227541504</v>
+        <v>0.1439039227541503</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.83379206482338</v>
+        <v>1.833792064823379</v>
       </c>
       <c r="H4" t="n">
         <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032494</v>
+        <v>55.14712864032492</v>
       </c>
       <c r="J4" t="n">
-        <v>129.649098983013</v>
+        <v>129.6490989830129</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585709</v>
+        <v>213.0532962585708</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283779</v>
+        <v>272.6348675283778</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795413</v>
+        <v>287.4552415795412</v>
       </c>
       <c r="N4" t="n">
-        <v>280.6201984288362</v>
+        <v>280.6201984288361</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443084</v>
+        <v>259.1981729443083</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219113</v>
+        <v>221.7888148219112</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.5550791735287</v>
+        <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924033</v>
+        <v>82.4539595692403</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878563</v>
+        <v>31.95799443878561</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881714</v>
+        <v>7.83529336788171</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,7 +32795,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>339.9772972286971</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32962,7 +32962,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,10 +33272,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>446.0127311990643</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990643</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,16 +33983,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,7 +34220,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>368.6279838366855</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>750.6021172789107</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734511</v>
+        <v>165.9285811734509</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628733</v>
+        <v>299.9349591628731</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320796</v>
+        <v>409.3703458320793</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109647</v>
+        <v>487.4927177109644</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453449</v>
+        <v>500.0412720453446</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353304</v>
+        <v>458.7048328353301</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964499</v>
+        <v>356.6444664964495</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189519</v>
+        <v>219.1658015189517</v>
       </c>
       <c r="R2" t="n">
-        <v>41.2151342118035</v>
+        <v>41.21513421180339</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314354</v>
+        <v>79.81800000314342</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282779</v>
+        <v>215.3659426282778</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830734</v>
+        <v>336.3765332830732</v>
       </c>
       <c r="M3" t="n">
-        <v>412.087940578466</v>
+        <v>412.0879405784657</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432242</v>
+        <v>437.548868943224</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985151</v>
+        <v>377.8274953985149</v>
       </c>
       <c r="P3" t="n">
-        <v>315.803749593739</v>
+        <v>525.8810373295895</v>
       </c>
       <c r="Q3" t="n">
-        <v>349.3074981722804</v>
+        <v>139.2302104364312</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.2899188663402</v>
+        <v>36.28991886634014</v>
       </c>
       <c r="K4" t="n">
-        <v>190.783804432688</v>
+        <v>190.7838044326879</v>
       </c>
       <c r="L4" t="n">
-        <v>300.224892788694</v>
+        <v>300.2248927886939</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413819</v>
+        <v>327.0391185413818</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080648</v>
+        <v>324.7523708080647</v>
       </c>
       <c r="O4" t="n">
-        <v>283.7833008583481</v>
+        <v>283.783300858348</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868048</v>
+        <v>219.0673740868047</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183431</v>
+        <v>67.39303592183425</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,7 +36443,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>197.8432633066788</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,16 +36680,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,10 +36920,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770459</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770459</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,16 +37464,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980851</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,16 +37631,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>237.2862717533522</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>619.2604051955774</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
